--- a/读写excel/monitor_device.xlsx
+++ b/读写excel/monitor_device.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\go-dev\GoDevEach\读写excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2815E3-5DEF-4A4E-AC54-C1D3158A8167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE21FB-E413-4EFD-AAB6-D52CE3C13371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="student_list" sheetId="1" r:id="rId1"/>
+    <sheet name="monitor_devices" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
